--- a/Data/Predictions/XGBoost/XGBoost_Classifier_Predictions_Individual_Features_PCA.xlsx
+++ b/Data/Predictions/XGBoost/XGBoost_Classifier_Predictions_Individual_Features_PCA.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -834,7 +834,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3696,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -4371,7 +4371,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -4560,7 +4560,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -6153,7 +6153,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -7962,7 +7962,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -11445,7 +11445,7 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -12822,7 +12822,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -14334,7 +14334,7 @@
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -14415,7 +14415,7 @@
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -14874,7 +14874,7 @@
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -15360,7 +15360,7 @@
       </c>
       <c r="E553" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -16494,7 +16494,7 @@
       </c>
       <c r="E595" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -17358,7 +17358,7 @@
       </c>
       <c r="E627" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -18438,7 +18438,7 @@
       </c>
       <c r="E667" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -19113,7 +19113,7 @@
       </c>
       <c r="E692" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -19437,7 +19437,7 @@
       </c>
       <c r="E704" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -19653,7 +19653,7 @@
       </c>
       <c r="E712" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -21921,7 +21921,7 @@
       </c>
       <c r="E796" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -22947,7 +22947,7 @@
       </c>
       <c r="E834" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -22974,7 +22974,7 @@
       </c>
       <c r="E835" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -23514,7 +23514,7 @@
       </c>
       <c r="E855" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -23730,7 +23730,7 @@
       </c>
       <c r="E863" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -25458,7 +25458,7 @@
       </c>
       <c r="E927" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -25539,7 +25539,7 @@
       </c>
       <c r="E930" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -25620,7 +25620,7 @@
       </c>
       <c r="E933" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -26943,7 +26943,7 @@
       </c>
       <c r="E982" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -28131,7 +28131,7 @@
       </c>
       <c r="E1026" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -29076,7 +29076,7 @@
       </c>
       <c r="E1061" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -29400,7 +29400,7 @@
       </c>
       <c r="E1073" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -31128,7 +31128,7 @@
       </c>
       <c r="E1137" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -32289,7 +32289,7 @@
       </c>
       <c r="E1180" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -32370,7 +32370,7 @@
       </c>
       <c r="E1183" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -32505,7 +32505,7 @@
       </c>
       <c r="E1188" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -33099,7 +33099,7 @@
       </c>
       <c r="E1210" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -33963,7 +33963,7 @@
       </c>
       <c r="E1242" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -34341,7 +34341,7 @@
       </c>
       <c r="E1256" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -35286,7 +35286,7 @@
       </c>
       <c r="E1291" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -36204,7 +36204,7 @@
       </c>
       <c r="E1325" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -36528,7 +36528,7 @@
       </c>
       <c r="E1337" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -37365,7 +37365,7 @@
       </c>
       <c r="E1368" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -37608,7 +37608,7 @@
       </c>
       <c r="E1377" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -37635,7 +37635,7 @@
       </c>
       <c r="E1378" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -37932,7 +37932,7 @@
       </c>
       <c r="E1389" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -38688,7 +38688,7 @@
       </c>
       <c r="E1417" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
